--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC220.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC220.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="188">
   <si>
     <t>Fecha:</t>
   </si>
@@ -549,18 +549,12 @@
     <t>IMG08</t>
   </si>
   <si>
-    <t>IMG09</t>
-  </si>
-  <si>
     <t>MA_11_02_REC220</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>Grafica de la funcion f(x)=e^x , su inversa f^-1(x)=lnx</t>
-  </si>
-  <si>
     <t>ninguna</t>
   </si>
   <si>
@@ -570,24 +564,15 @@
     <t>Grafica de la función g(x) = Log_(1/2) (x) , la función h(x)=x y f(x)=(1/2)^x en diferentes colores y eticuetas</t>
   </si>
   <si>
-    <t>Grafica de la función g(x) =Log_(1/2) (x)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grafica de la función tangente de x y arcotangente de x con distintos colores cada una. </t>
   </si>
   <si>
     <t xml:space="preserve">Grafica de la función f(x)=sen(x), donde se destaquen los puntos (π/4,√2/2) y ((-7π)/4,√2/2)  y (9π/4,√2/2) </t>
   </si>
   <si>
-    <t>nimguna</t>
-  </si>
-  <si>
     <t>Grafica de la función Sen(x) solo entre -π/2 y π/2 y la funcion arcsen(x)</t>
   </si>
   <si>
-    <t>En colores distintos y cada una con sus etiquetas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grafica de la función g(x)=cos(x),  y  las rectas x=0,x=π que parezca las dos rectas verticales y se resalte la función coseno entre las rectas. </t>
   </si>
   <si>
@@ -597,9 +582,6 @@
     <t>IMG11</t>
   </si>
   <si>
-    <t>IMG12</t>
-  </si>
-  <si>
     <t>IMG13</t>
   </si>
   <si>
@@ -609,16 +591,52 @@
     <t>con sus etiquetas  espectivas y en distintos colores</t>
   </si>
   <si>
-    <t>Grafica de la función g(x)=cos(x) solo entre -π/2 y π/2 y la función g^-1(x)=arccos(x)</t>
-  </si>
-  <si>
     <t>Grafica de la función Tan(x),  x=-π/2, x=π/2  , que parezca las rectas verticales se resalte la curva entre las dos rectas verticales</t>
   </si>
   <si>
     <t>Grafica de la funcion f(x)=tan x , y la inversa f^-1(x)=arcotan(x)</t>
   </si>
   <si>
-    <t xml:space="preserve">hacer   una  </t>
+    <t>Grafica de las funciones f(x)=ln(x) y g(x)=e^x en uma misma gráfica</t>
+  </si>
+  <si>
+    <t>grafica de la funcion ln(x)=f(x)</t>
+  </si>
+  <si>
+    <t>grafica de la funcion f(x)=(1/2)^x</t>
+  </si>
+  <si>
+    <t>Grafica de la función g(x) =Log en base (1/2) de  (x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no es la funcion </t>
+  </si>
+  <si>
+    <t>Apaarece como la  IMG 7</t>
+  </si>
+  <si>
+    <t>Aparece como la img 08</t>
+  </si>
+  <si>
+    <t>En colores distintos y cada una con sus etiquetas  DE LA FUNCION SENO TOCA RESTRINGIRLA, QUE UNICAMENTE SE VEA LA CURVA ENTRE -PI/2 Y PI/2</t>
+  </si>
+  <si>
+    <t>IMG9</t>
+  </si>
+  <si>
+    <t>Aparce en el pdf como IMG10</t>
+  </si>
+  <si>
+    <t>Grafica de la función g(x)=cos(x) solo entre 0 y π  y la función g^-1(x)=arccos(x)</t>
+  </si>
+  <si>
+    <t>es la imagen 12 del pdf</t>
+  </si>
+  <si>
+    <t>Es la grafica de tangente  restringida de la imagen anterior, y la grafica de arcotangente</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f^-1(x)=arcotan(x)</t>
   </si>
 </sst>
 </file>
@@ -776,7 +794,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,6 +838,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,7 +1360,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1379,9 +1415,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,16 +1544,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1605,6 +1632,57 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1739,105 +1817,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1610591</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>277091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4810991</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2837411</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15586364" y="2251364"/>
-          <a:ext cx="3200400" cy="2560320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2060864</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4346864</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2476500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16036637" y="5316681"/>
-          <a:ext cx="2286000" cy="2095501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2550,11 +2529,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2582,8 +2561,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -2592,16 +2571,16 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="F2" s="75" t="s">
+      <c r="D2" s="80"/>
+      <c r="F2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2609,14 +2588,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="81">
         <v>11</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="D3" s="82"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -2624,19 +2603,19 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -2645,20 +2624,20 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="40" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="65"/>
+      <c r="G5" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -2670,20 +2649,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2699,12 +2678,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2714,7 +2693,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -2729,16 +2708,16 @@
       <c r="E9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="63" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="20" t="s">
@@ -2753,7 +2732,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="22" t="str">
@@ -2782,10 +2761,10 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="70" t="s">
-        <v>181</v>
-      </c>
+      <c r="J10" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2820,9 +2799,11 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="70" t="s">
-        <v>162</v>
+      <c r="J11" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2858,364 +2839,374 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="105" t="str">
         <f t="shared" si="2"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="106" t="str">
         <f t="shared" si="0"/>
         <v>MA_11_02_REC220_IMG04.jpg</v>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="106" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" s="70" t="s">
-        <v>163</v>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="108" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="115" t="str">
         <f t="shared" ref="C14" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="F14" s="116" t="str">
         <f t="shared" ref="F14" si="4">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC220_IMG05.jpg</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="116" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="116" t="str">
         <f t="shared" ref="H14" si="5">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I14" s="14" t="str">
+      <c r="I14" s="116" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="K14" s="71"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="J14" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="117" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="110" t="str">
         <f t="shared" ref="C15" si="6">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="111" t="str">
         <f t="shared" ref="F15" si="7">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC220_IMG06.jpg</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="111" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="111" t="str">
         <f t="shared" ref="H15" si="8">IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="111" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="J15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="22" t="str">
-        <f t="shared" ref="C16" si="9">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C16" s="110" t="e">
+        <f>IF(OR(B16&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="111" t="e">
+        <f>IF(OR(B16&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="111" t="e">
+        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="111" t="e">
+        <f>IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="111" t="e">
+        <f>IF(OR(B16&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="113" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="115" t="str">
+        <f>IF(OR(B17&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E17" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="14" t="str">
-        <f t="shared" ref="F16" si="10">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_REC220_IMG07.jpg</v>
-      </c>
-      <c r="G16" s="14" t="str">
-        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+      <c r="F17" s="116" t="str">
+        <f>IF(OR(B17&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_REC220_IMG08.jpg</v>
+      </c>
+      <c r="G17" s="116" t="str">
+        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H16" s="14" t="str">
-        <f t="shared" ref="H16" si="11">IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="14" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="H17" s="116" t="str">
+        <f>IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="116" t="str">
+        <f>IF(OR(B17&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="119" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="22" t="e">
-        <f>IF(OR(B17&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C18" s="110" t="str">
+        <f t="shared" ref="C18:C22" si="9">IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D18" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E18" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="14" t="e">
-        <f>IF(OR(B17&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="14" t="e">
-        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="14" t="e">
-        <f>IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="14" t="e">
-        <f>IF(OR(B17&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="22" t="str">
-        <f>IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso F6</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="14" t="str">
-        <f>IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_REC220_IMG09.jpg</v>
-      </c>
-      <c r="G18" s="14" t="str">
+      <c r="F18" s="111" t="str">
+        <f t="shared" ref="F18:F22" si="10">IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_REC220_IMG9.jpg</v>
+      </c>
+      <c r="G18" s="111" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H18" s="14" t="str">
-        <f>IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="I18" s="14" t="str">
+      <c r="H18" s="111" t="str">
+        <f t="shared" ref="H18:H22" si="11">IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="111" t="str">
         <f>IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J18" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="J18" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="113" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="22" t="str">
-        <f t="shared" ref="C19:C23" si="12">IF(OR(B19&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C19" s="110" t="str">
+        <f t="shared" si="9"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="14" t="str">
-        <f t="shared" ref="F19:F23" si="13">IF(OR(B19&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I19="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F19" s="111" t="str">
+        <f t="shared" si="10"/>
         <v>MA_11_02_REC220_IMG10.jpg</v>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="111" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H19" s="14" t="str">
-        <f t="shared" ref="H19:H23" si="14">IF(AND(I19&lt;&gt;"",I19&lt;&gt;0),IF(OR(B19&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="14" t="str">
+      <c r="H19" s="111" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I19" s="111" t="str">
         <f>IF(OR(B19&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="22" t="str">
-        <f t="shared" si="12"/>
+      <c r="C20" s="110" t="str">
+        <f t="shared" si="9"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="14" t="str">
-        <f t="shared" si="13"/>
+      <c r="F20" s="111" t="str">
+        <f t="shared" si="10"/>
         <v>MA_11_02_REC220_IMG11.jpg</v>
       </c>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="111" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H20" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I20" s="14" t="str">
+      <c r="H20" s="111" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I20" s="111" t="str">
         <f>IF(OR(B20&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="J20" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="A21" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="22" t="str">
-        <f t="shared" si="12"/>
+      <c r="C21" s="110" t="str">
+        <f t="shared" si="9"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>MA_11_02_REC220_IMG12.jpg</v>
-      </c>
-      <c r="G21" s="14" t="str">
+      <c r="F21" s="111" t="str">
+        <f t="shared" si="10"/>
+        <v>MA_11_02_REC220_IMG13.jpg</v>
+      </c>
+      <c r="G21" s="111" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H21" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I21" s="14" t="str">
+      <c r="H21" s="111" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I21" s="111" t="str">
         <f>IF(OR(B21&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" s="15"/>
+      <c r="J21" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="113" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>Recurso F6</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -3225,59 +3216,46 @@
         <v>146</v>
       </c>
       <c r="F22" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>MA_11_02_REC220_IMG13.jpg</v>
+        <f t="shared" si="10"/>
+        <v>MA_11_02_REC220_IMG14.jpg</v>
       </c>
       <c r="G22" s="14" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H22" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="J22" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="22" t="str">
-        <f t="shared" si="12"/>
-        <v>Recurso F6</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>MA_11_02_REC220_IMG14.jpg</v>
+        <f t="shared" ref="F23:F52" si="12">IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I23="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G23" s="14" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>800 x 460 px</v>
+        <v/>
       </c>
       <c r="H23" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H23:H52" si="13">IF(AND(I23&lt;&gt;"",I23&lt;&gt;0),IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I23" s="14" t="str">
-        <f>IF(OR(B23&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
       <c r="J23" s="14"/>
@@ -3290,7 +3268,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="str">
-        <f t="shared" ref="F24:F53" si="15">IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE($C$7,"_",$A24,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I24="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G24" s="14" t="str">
@@ -3298,7 +3276,7 @@
         <v/>
       </c>
       <c r="H24" s="14" t="str">
-        <f t="shared" ref="H24:H53" si="16">IF(AND(I24&lt;&gt;"",I24&lt;&gt;0),IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE($C$7,"_",$A24,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I24" s="14" t="str">
@@ -3310,12 +3288,12 @@
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G25" s="14" t="str">
@@ -3323,7 +3301,7 @@
         <v/>
       </c>
       <c r="H25" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I25" s="14" t="str">
@@ -3340,7 +3318,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G26" s="14" t="str">
@@ -3348,7 +3326,7 @@
         <v/>
       </c>
       <c r="H26" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I26" s="14" t="str">
@@ -3365,7 +3343,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G27" s="14" t="str">
@@ -3373,7 +3351,7 @@
         <v/>
       </c>
       <c r="H27" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I27" s="14" t="str">
@@ -3390,7 +3368,7 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G28" s="14" t="str">
@@ -3398,7 +3376,7 @@
         <v/>
       </c>
       <c r="H28" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I28" s="14" t="str">
@@ -3415,7 +3393,7 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G29" s="14" t="str">
@@ -3423,7 +3401,7 @@
         <v/>
       </c>
       <c r="H29" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I29" s="14" t="str">
@@ -3440,7 +3418,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G30" s="14" t="str">
@@ -3448,7 +3426,7 @@
         <v/>
       </c>
       <c r="H30" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I30" s="14" t="str">
@@ -3465,7 +3443,7 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G31" s="14" t="str">
@@ -3473,7 +3451,7 @@
         <v/>
       </c>
       <c r="H31" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I31" s="14" t="str">
@@ -3490,7 +3468,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
@@ -3498,7 +3476,7 @@
         <v/>
       </c>
       <c r="H32" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I32" s="14" t="str">
@@ -3515,7 +3493,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G33" s="14" t="str">
@@ -3523,7 +3501,7 @@
         <v/>
       </c>
       <c r="H33" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I33" s="14" t="str">
@@ -3540,7 +3518,7 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G34" s="14" t="str">
@@ -3548,7 +3526,7 @@
         <v/>
       </c>
       <c r="H34" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I34" s="14" t="str">
@@ -3565,7 +3543,7 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
@@ -3573,7 +3551,7 @@
         <v/>
       </c>
       <c r="H35" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I35" s="14" t="str">
@@ -3590,7 +3568,7 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G36" s="14" t="str">
@@ -3598,7 +3576,7 @@
         <v/>
       </c>
       <c r="H36" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I36" s="14" t="str">
@@ -3615,7 +3593,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G37" s="14" t="str">
@@ -3623,7 +3601,7 @@
         <v/>
       </c>
       <c r="H37" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I37" s="14" t="str">
@@ -3640,7 +3618,7 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G38" s="14" t="str">
@@ -3648,7 +3626,7 @@
         <v/>
       </c>
       <c r="H38" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I38" s="14" t="str">
@@ -3665,7 +3643,7 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G39" s="14" t="str">
@@ -3673,7 +3651,7 @@
         <v/>
       </c>
       <c r="H39" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I39" s="14" t="str">
@@ -3690,7 +3668,7 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G40" s="14" t="str">
@@ -3698,7 +3676,7 @@
         <v/>
       </c>
       <c r="H40" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I40" s="14" t="str">
@@ -3715,7 +3693,7 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G41" s="14" t="str">
@@ -3723,7 +3701,7 @@
         <v/>
       </c>
       <c r="H41" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I41" s="14" t="str">
@@ -3740,7 +3718,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G42" s="14" t="str">
@@ -3748,7 +3726,7 @@
         <v/>
       </c>
       <c r="H42" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I42" s="14" t="str">
@@ -3765,7 +3743,7 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
@@ -3773,7 +3751,7 @@
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
@@ -3790,7 +3768,7 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G44" s="14" t="str">
@@ -3798,7 +3776,7 @@
         <v/>
       </c>
       <c r="H44" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I44" s="14" t="str">
@@ -3815,7 +3793,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
@@ -3823,7 +3801,7 @@
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
@@ -3840,7 +3818,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G46" s="14" t="str">
@@ -3848,7 +3826,7 @@
         <v/>
       </c>
       <c r="H46" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I46" s="14" t="str">
@@ -3865,7 +3843,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G47" s="14" t="str">
@@ -3873,7 +3851,7 @@
         <v/>
       </c>
       <c r="H47" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I47" s="14" t="str">
@@ -3890,7 +3868,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G48" s="14" t="str">
@@ -3898,7 +3876,7 @@
         <v/>
       </c>
       <c r="H48" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I48" s="14" t="str">
@@ -3915,7 +3893,7 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G49" s="14" t="str">
@@ -3923,7 +3901,7 @@
         <v/>
       </c>
       <c r="H49" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I49" s="14" t="str">
@@ -3940,7 +3918,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G50" s="14" t="str">
@@ -3948,7 +3926,7 @@
         <v/>
       </c>
       <c r="H50" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I50" s="14" t="str">
@@ -3965,7 +3943,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -3973,7 +3951,7 @@
         <v/>
       </c>
       <c r="H51" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I51" s="14" t="str">
@@ -3990,7 +3968,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G52" s="14" t="str">
@@ -3998,7 +3976,7 @@
         <v/>
       </c>
       <c r="H52" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I52" s="14" t="str">
@@ -4015,7 +3993,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F53:F71" si="14">IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),CONCATENATE($C$7,"_",$A53,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I53="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G53" s="14" t="str">
@@ -4023,7 +4001,7 @@
         <v/>
       </c>
       <c r="H53" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H53:H71" si="15">IF(AND(I53&lt;&gt;"",I53&lt;&gt;0),IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),CONCATENATE($C$7,"_",$A53,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I53" s="14" t="str">
@@ -4040,7 +4018,7 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f t="shared" ref="F54:F72" si="17">IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE($C$7,"_",$A54,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I54="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -4048,7 +4026,7 @@
         <v/>
       </c>
       <c r="H54" s="14" t="str">
-        <f t="shared" ref="H54:H72" si="18">IF(AND(I54&lt;&gt;"",I54&lt;&gt;0),IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE($C$7,"_",$A54,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I54" s="14" t="str">
@@ -4065,7 +4043,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -4073,7 +4051,7 @@
         <v/>
       </c>
       <c r="H55" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I55" s="14" t="str">
@@ -4090,7 +4068,7 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -4098,7 +4076,7 @@
         <v/>
       </c>
       <c r="H56" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I56" s="14" t="str">
@@ -4115,7 +4093,7 @@
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -4123,7 +4101,7 @@
         <v/>
       </c>
       <c r="H57" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I57" s="14" t="str">
@@ -4140,7 +4118,7 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -4148,7 +4126,7 @@
         <v/>
       </c>
       <c r="H58" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I58" s="14" t="str">
@@ -4165,7 +4143,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -4173,7 +4151,7 @@
         <v/>
       </c>
       <c r="H59" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I59" s="14" t="str">
@@ -4190,7 +4168,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -4198,7 +4176,7 @@
         <v/>
       </c>
       <c r="H60" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I60" s="14" t="str">
@@ -4215,7 +4193,7 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -4223,7 +4201,7 @@
         <v/>
       </c>
       <c r="H61" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I61" s="14" t="str">
@@ -4240,7 +4218,7 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -4248,7 +4226,7 @@
         <v/>
       </c>
       <c r="H62" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I62" s="14" t="str">
@@ -4265,7 +4243,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -4273,7 +4251,7 @@
         <v/>
       </c>
       <c r="H63" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I63" s="14" t="str">
@@ -4290,7 +4268,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -4298,7 +4276,7 @@
         <v/>
       </c>
       <c r="H64" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I64" s="14" t="str">
@@ -4315,7 +4293,7 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -4323,7 +4301,7 @@
         <v/>
       </c>
       <c r="H65" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I65" s="14" t="str">
@@ -4340,7 +4318,7 @@
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -4348,7 +4326,7 @@
         <v/>
       </c>
       <c r="H66" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I66" s="14" t="str">
@@ -4365,7 +4343,7 @@
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -4373,7 +4351,7 @@
         <v/>
       </c>
       <c r="H67" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I67" s="14" t="str">
@@ -4390,7 +4368,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -4398,7 +4376,7 @@
         <v/>
       </c>
       <c r="H68" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I68" s="14" t="str">
@@ -4415,7 +4393,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -4423,7 +4401,7 @@
         <v/>
       </c>
       <c r="H69" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I69" s="14" t="str">
@@ -4440,7 +4418,7 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -4448,7 +4426,7 @@
         <v/>
       </c>
       <c r="H70" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I70" s="14" t="str">
@@ -4465,7 +4443,7 @@
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -4473,7 +4451,7 @@
         <v/>
       </c>
       <c r="H71" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I71" s="14" t="str">
@@ -4482,31 +4460,6 @@
       </c>
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
-    </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="G72" s="14" t="str">
-        <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H72" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I72" s="14" t="str">
-        <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4548,17 +4501,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E71">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D71">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4578,539 +4530,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11" style="26"/>
-    <col min="3" max="3" width="13.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="26" customWidth="1"/>
-    <col min="5" max="7" width="11" style="26"/>
-    <col min="8" max="11" width="11" style="26" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="26"/>
+    <col min="1" max="1" width="72.25" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11" style="25"/>
+    <col min="3" max="3" width="13.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="25" customWidth="1"/>
+    <col min="5" max="7" width="11" style="25"/>
+    <col min="8" max="11" width="11" style="25" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="93" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="99" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="36"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="35"/>
+      <c r="H3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="35"/>
+      <c r="H4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="102" t="str">
+      <c r="D5" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="36"/>
-      <c r="H5" s="26" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>2</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="H6" s="26" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="H6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>3</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="88" t="str">
+      <c r="D7" s="85" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
-      <c r="H7" s="26" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="H7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>4</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="I8" s="26" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="I8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>5</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="I9" s="26" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="I9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>6</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="I10" s="26" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="I10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>7</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>8</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>9</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
-      <c r="I13" s="26" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="I13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>10</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="I14" s="26" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="I14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>11</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="93" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="J15" s="26">
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="J15" s="25">
         <v>12</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <v>13</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="96" t="str">
+      <c r="D17" s="93" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="J17" s="26">
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="J17" s="25">
         <v>14</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="66" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="88" t="str">
+      <c r="D18" s="85" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="J18" s="26">
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="J18" s="25">
         <v>15</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="25">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="H19" s="26">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="H19" s="25">
         <v>3</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <v>16</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="25">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="H20" s="26">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="H20" s="25">
         <v>1</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>9</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>1</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="26" t="str">
+      <c r="H21" s="25" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>MA</v>
       </c>
-      <c r="I21" s="26" t="str">
+      <c r="I21" s="25" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>11</v>
       </c>
-      <c r="J21" s="26" t="str">
+      <c r="J21" s="25" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>01</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="25">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="26">
+      <c r="K22" s="25">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="26">
+      <c r="K24" s="25">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="26">
+      <c r="K25" s="25">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="26">
+      <c r="K27" s="25">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="26">
+      <c r="K28" s="25">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="26">
+      <c r="K30" s="25">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="26">
+      <c r="K31" s="25">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="26">
+      <c r="K33" s="25">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="26">
+      <c r="K34" s="25">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="26">
+      <c r="K35" s="25">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="26">
+      <c r="K36" s="25">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="26">
+      <c r="K37" s="25">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="26">
+      <c r="K38" s="25">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="26">
+      <c r="K39" s="25">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="26">
+      <c r="K40" s="25">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="26">
+      <c r="K41" s="25">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="26">
+      <c r="K42" s="25">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="26">
+      <c r="K43" s="25">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="26">
+      <c r="K44" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="26" t="str">
+      <c r="K45" s="25" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5305,562 +5257,562 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="26" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="26"/>
-    <col min="5" max="5" width="11.75" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11" style="26" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="26" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="26" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="26"/>
+    <col min="1" max="1" width="21" style="25" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="25"/>
+    <col min="5" max="5" width="11.75" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11" style="25" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="25" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="25" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="45" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="50"/>
-    </row>
-    <row r="6" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48" t="s">
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="48"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48" t="s">
+      <c r="G13" s="50"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="26" t="s">
+      <c r="J13" s="50"/>
+      <c r="K13" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="51"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="48" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="26" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53" t="s">
+      <c r="G16" s="51"/>
+      <c r="H16" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="54" t="s">
+      <c r="J16" s="51"/>
+      <c r="K16" s="53" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="55" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="56" t="s">
+      <c r="J17" s="47"/>
+      <c r="K17" s="55" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC220.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC220.xlsx
@@ -588,9 +588,6 @@
     <t>IMG14</t>
   </si>
   <si>
-    <t>con sus etiquetas  espectivas y en distintos colores</t>
-  </si>
-  <si>
     <t>Grafica de la función Tan(x),  x=-π/2, x=π/2  , que parezca las rectas verticales se resalte la curva entre las dos rectas verticales</t>
   </si>
   <si>
@@ -633,10 +630,13 @@
     <t>es la imagen 12 del pdf</t>
   </si>
   <si>
-    <t>Es la grafica de tangente  restringida de la imagen anterior, y la grafica de arcotangente</t>
-  </si>
-  <si>
     <t>Grafica de la funcion f^-1(x)=arcotan(x)</t>
+  </si>
+  <si>
+    <t>Falta el menos de g a la menos 1,  coseno debe estar restringida entre cero y pi, similar a la grafica 8 aunque no hay necesidad de las lineas rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta el menos de f a la menos 1, </t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1360,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1412,9 +1412,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,18 +1533,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,57 +1665,16 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2532,8 +2523,8 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2561,8 +2552,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -2571,16 +2562,16 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="F2" s="72" t="s">
+      <c r="D2" s="90"/>
+      <c r="F2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2588,14 +2579,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="91">
         <v>11</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="D3" s="92"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -2603,19 +2594,19 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -2624,20 +2615,20 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="84"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="40" t="str">
+      <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -2649,20 +2640,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2678,12 +2669,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2693,7 +2684,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -2708,16 +2699,16 @@
       <c r="E9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="62" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="20" t="s">
@@ -2728,513 +2719,513 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
+      <c r="A10" s="66" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="68" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="69" t="str">
         <f t="shared" ref="F10:F13" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC220_IMG01.jpg</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="69" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="69" t="str">
         <f t="shared" ref="H10:H12" si="1">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="69" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" s="69"/>
+      <c r="J10" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="68" t="str">
         <f t="shared" ref="C11:C13" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="69" t="str">
         <f t="shared" si="0"/>
         <v>MA_11_02_REC220_IMG02.jpg</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="69" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="69" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
       <c r="J11" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="K11" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="71" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="68" t="str">
         <f t="shared" si="2"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="69" t="str">
         <f t="shared" si="0"/>
         <v>MA_11_02_REC220_IMG03.jpg</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="69" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="69" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="68"/>
+      <c r="J12" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" s="116"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="105" t="str">
+      <c r="C13" s="68" t="str">
         <f t="shared" si="2"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="106" t="str">
+      <c r="F13" s="69" t="str">
         <f t="shared" si="0"/>
         <v>MA_11_02_REC220_IMG04.jpg</v>
       </c>
-      <c r="G13" s="106" t="str">
+      <c r="G13" s="69" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107" t="s">
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="71" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="115" t="str">
+      <c r="C14" s="77" t="str">
         <f t="shared" ref="C14" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="116" t="str">
+      <c r="F14" s="78" t="str">
         <f t="shared" ref="F14" si="4">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC220_IMG05.jpg</v>
       </c>
-      <c r="G14" s="116" t="str">
+      <c r="G14" s="78" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H14" s="116" t="str">
+      <c r="H14" s="78" t="str">
         <f t="shared" ref="H14" si="5">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I14" s="116" t="str">
+      <c r="I14" s="78" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="116" t="s">
+      <c r="J14" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="K14" s="117" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="110" t="str">
+      <c r="C15" s="68" t="str">
         <f t="shared" ref="C15" si="6">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="111" t="str">
+      <c r="F15" s="69" t="str">
         <f t="shared" ref="F15" si="7">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC220_IMG06.jpg</v>
       </c>
-      <c r="G15" s="111" t="str">
+      <c r="G15" s="69" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H15" s="111" t="str">
+      <c r="H15" s="69" t="str">
         <f t="shared" ref="H15" si="8">IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I15" s="111" t="str">
+      <c r="I15" s="69" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="112" t="s">
+      <c r="J15" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="113" t="s">
-        <v>179</v>
+      <c r="K15" s="80" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="110" t="e">
+      <c r="C16" s="68" t="e">
         <f>IF(OR(B16&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="111" t="e">
+      <c r="F16" s="69" t="e">
         <f>IF(OR(B16&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="111" t="e">
+      <c r="G16" s="69" t="e">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="111" t="e">
+      <c r="H16" s="69" t="e">
         <f>IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="I16" s="111" t="e">
+      <c r="I16" s="69" t="e">
         <f>IF(OR(B16&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="K16" s="113" t="s">
-        <v>180</v>
+      <c r="K16" s="80" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="115" t="str">
+      <c r="C17" s="68" t="str">
         <f>IF(OR(B17&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="116" t="s">
+      <c r="E17" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="116" t="str">
+      <c r="F17" s="69" t="str">
         <f>IF(OR(B17&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC220_IMG08.jpg</v>
       </c>
-      <c r="G17" s="116" t="str">
+      <c r="G17" s="69" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H17" s="116" t="str">
+      <c r="H17" s="69" t="str">
         <f>IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I17" s="116" t="str">
+      <c r="I17" s="69" t="str">
         <f>IF(OR(B17&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J17" s="118" t="s">
+      <c r="J17" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="119" t="s">
+      <c r="K17" s="80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="110" t="str">
+      <c r="C18" s="68" t="str">
         <f t="shared" ref="C18:C22" si="9">IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="111" t="str">
+      <c r="F18" s="69" t="str">
         <f t="shared" ref="F18:F22" si="10">IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC220_IMG9.jpg</v>
       </c>
-      <c r="G18" s="111" t="str">
+      <c r="G18" s="69" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H18" s="111" t="str">
+      <c r="H18" s="69" t="str">
         <f t="shared" ref="H18:H22" si="11">IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I18" s="111" t="str">
+      <c r="I18" s="69" t="str">
         <f>IF(OR(B18&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J18" s="111" t="s">
+      <c r="J18" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="113" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
+      <c r="K18" s="80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="110" t="str">
+      <c r="C19" s="73" t="str">
         <f t="shared" si="9"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="111" t="str">
+      <c r="F19" s="74" t="str">
         <f t="shared" si="10"/>
         <v>MA_11_02_REC220_IMG10.jpg</v>
       </c>
-      <c r="G19" s="111" t="str">
+      <c r="G19" s="74" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H19" s="111" t="str">
+      <c r="H19" s="74" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I19" s="111" t="str">
+      <c r="I19" s="74" t="str">
         <f>IF(OR(B19&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="K19" s="113" t="s">
-        <v>171</v>
+      <c r="J19" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="75" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="68" t="str">
         <f t="shared" si="9"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="111" t="str">
+      <c r="F20" s="69" t="str">
         <f t="shared" si="10"/>
         <v>MA_11_02_REC220_IMG11.jpg</v>
       </c>
-      <c r="G20" s="111" t="str">
+      <c r="G20" s="69" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H20" s="111" t="str">
+      <c r="H20" s="69" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I20" s="111" t="str">
+      <c r="I20" s="69" t="str">
         <f>IF(OR(B20&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" s="113" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A21" s="109" t="s">
+      <c r="J20" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="110" t="str">
+      <c r="C21" s="73" t="str">
         <f t="shared" si="9"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="111" t="s">
+      <c r="E21" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="111" t="str">
+      <c r="F21" s="74" t="str">
         <f t="shared" si="10"/>
         <v>MA_11_02_REC220_IMG13.jpg</v>
       </c>
-      <c r="G21" s="111" t="str">
+      <c r="G21" s="74" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H21" s="111" t="str">
+      <c r="H21" s="74" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I21" s="111" t="str">
+      <c r="I21" s="74" t="str">
         <f>IF(OR(B21&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="113" t="s">
-        <v>186</v>
+      <c r="J21" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="75" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="73" t="str">
         <f t="shared" si="9"/>
         <v>Recurso F6</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="14" t="str">
+      <c r="F22" s="74" t="str">
         <f t="shared" si="10"/>
         <v>MA_11_02_REC220_IMG14.jpg</v>
       </c>
-      <c r="G22" s="14" t="str">
+      <c r="G22" s="74" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="74" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I22" s="14" t="str">
+      <c r="I22" s="74" t="str">
         <f>IF(OR(B22&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J22" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" s="15"/>
+      <c r="J22" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="75"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -4530,539 +4521,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11" style="25"/>
-    <col min="3" max="3" width="13.875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="25" customWidth="1"/>
-    <col min="5" max="7" width="11" style="25"/>
-    <col min="8" max="11" width="11" style="25" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="25"/>
+    <col min="1" max="1" width="72.25" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11" style="24"/>
+    <col min="3" max="3" width="13.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="24" customWidth="1"/>
+    <col min="5" max="7" width="11" style="24"/>
+    <col min="8" max="11" width="11" style="24" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="35"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="35"/>
-      <c r="H3" s="25" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="34"/>
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="H4" s="25" t="s">
+      <c r="F4" s="34"/>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>1</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="99" t="str">
+      <c r="D5" s="109" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="35"/>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="34"/>
+      <c r="H5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>2</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="H6" s="25" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="H6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>3</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="65" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="85" t="str">
+      <c r="D7" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="H7" s="25" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>4</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="I8" s="25" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="I8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>5</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="I9" s="25" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="I9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <v>6</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="I10" s="25" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="I10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <v>7</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <v>8</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
         <v>9</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="I13" s="25" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <v>10</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="I14" s="25" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="I14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <v>11</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="24">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="90" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="J15" s="25">
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="J15" s="24">
         <v>12</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <v>13</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="24">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="93" t="str">
+      <c r="D17" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="J17" s="25">
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
+      <c r="J17" s="24">
         <v>14</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="24">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="65" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="85" t="str">
+      <c r="D18" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="J18" s="25">
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="J18" s="24">
         <v>15</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="24">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="H19" s="25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="H19" s="24">
         <v>3</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>16</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="24">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="H20" s="25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="H20" s="24">
         <v>1</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <v>9</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <v>1</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="24">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="25" t="str">
+      <c r="H21" s="24" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>MA</v>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="24" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>11</v>
       </c>
-      <c r="J21" s="25" t="str">
+      <c r="J21" s="24" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>01</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="25">
+      <c r="K22" s="24">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="25">
+      <c r="K23" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="25">
+      <c r="K24" s="24">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="25">
+      <c r="K25" s="24">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="25">
+      <c r="K26" s="24">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="25">
+      <c r="K27" s="24">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="25">
+      <c r="K28" s="24">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="25">
+      <c r="K29" s="24">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="25">
+      <c r="K30" s="24">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="25">
+      <c r="K31" s="24">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="25">
+      <c r="K32" s="24">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="25">
+      <c r="K33" s="24">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="25">
+      <c r="K34" s="24">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="25">
+      <c r="K35" s="24">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="25">
+      <c r="K36" s="24">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="25">
+      <c r="K37" s="24">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="25">
+      <c r="K38" s="24">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="25">
+      <c r="K39" s="24">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="25">
+      <c r="K40" s="24">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="25">
+      <c r="K41" s="24">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="25">
+      <c r="K42" s="24">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="25">
+      <c r="K43" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="25">
+      <c r="K44" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="25" t="str">
+      <c r="K45" s="24" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5257,562 +5248,562 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="25" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="25"/>
-    <col min="5" max="5" width="11.75" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="25" customWidth="1"/>
-    <col min="7" max="7" width="11" style="25" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="25" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="25" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="25" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="25"/>
+    <col min="1" max="1" width="21" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="24"/>
+    <col min="5" max="5" width="11.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11" style="24" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="24" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="24" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="44" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="49"/>
-    </row>
-    <row r="6" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="47"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="25" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47" t="s">
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="25" t="s">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="53" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="52" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="54" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="55" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="54" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
